--- a/medicine/Mort/Pourquoi_moi_/Pourquoi_moi_.xlsx
+++ b/medicine/Mort/Pourquoi_moi_/Pourquoi_moi_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pourquoi_moi%3F</t>
+          <t>Pourquoi_moi?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pourquoi moi? (Why Me?) est un film d'animation canadien réalisé en 1978 par Janet Perlman et Derek Lamb (en).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pourquoi_moi%3F</t>
+          <t>Pourquoi_moi?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">M. Dupont ne se doutait pas en se rendant chez son médecin de la terrible nouvelle que ce dernier allait lui annoncer, il ne lui reste plus à vivre que... cinq minutes ! Comment va-t-il réagir ?
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pourquoi_moi%3F</t>
+          <t>Pourquoi_moi?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Pourquoi moi?
 Titre original : Why Me?
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pourquoi_moi%3F</t>
+          <t>Pourquoi_moi?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Version parlée anglaise
 Marshall Efron : Nesbitt Spoon
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pourquoi_moi%3F</t>
+          <t>Pourquoi_moi?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Premier Prix du Festival international du film d'animation d'Ottawa
 Ruban Bleu de l'America, Film Festival 1979
